--- a/secure/26P-Cassandre.xlsx
+++ b/secure/26P-Cassandre.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26P-Cassandre-705533</t>
+    <t>26P-Cassandre-366806</t>
   </si>
   <si>
-    <t>26P-Cassandre-1051670</t>
+    <t>26P-Cassandre-128203</t>
   </si>
   <si>
-    <t>26P-Cassandre-316963</t>
+    <t>26P-Cassandre-758061</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F7181634"/>
+        <fgColor rgb="F8ec9f38"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:LE503"/>
+  <dimension ref="A1:OJ503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1039,14 +1039,11 @@
       </c>
       <c r="M98" s="4"/>
     </row>
-    <row r="99" spans="1:317" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>-0.612</v>
       </c>
       <c r="M99" s="4"/>
-      <c r="LE99" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
@@ -1546,14 +1543,11 @@
       </c>
       <c r="M182" s="4"/>
     </row>
-    <row r="183" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>-0.276</v>
       </c>
       <c r="M183" s="4"/>
-      <c r="EK183" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
@@ -1795,14 +1789,11 @@
       </c>
       <c r="M223" s="4"/>
     </row>
-    <row r="224" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>-0.112</v>
       </c>
       <c r="M224" s="4"/>
-      <c r="CJ224" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
@@ -2188,11 +2179,14 @@
       </c>
       <c r="M288" s="4"/>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:284" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
         <v>0.148</v>
       </c>
       <c r="M289" s="4"/>
+      <c r="JX289" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
@@ -2686,11 +2680,14 @@
       </c>
       <c r="M371" s="4"/>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:400" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
         <v>0.48</v>
       </c>
       <c r="M372" s="4"/>
+      <c r="OJ372" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" s="3">
@@ -3454,11 +3451,14 @@
       </c>
       <c r="M499" s="4"/>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:201" x14ac:dyDescent="0.25">
       <c r="A500" s="3">
         <v>0.992</v>
       </c>
       <c r="M500" s="4"/>
+      <c r="GS500" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="501" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A501" s="3">
